--- a/analysis/version86-test depth vs time.xlsx
+++ b/analysis/version86-test depth vs time.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11620" yWindow="0" windowWidth="25600" windowHeight="13860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,13 @@
     <t>depth 10/18</t>
   </si>
   <si>
-    <t>all programs are rand off, 21000 kn/s</t>
-  </si>
-  <si>
     <t>depth 12/20</t>
   </si>
   <si>
     <t>conclusion: depthperfect = depth + 8</t>
+  </si>
+  <si>
+    <t>all programs are rand off, 21000 kl/s</t>
   </si>
 </sst>
 </file>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -503,7 +503,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -513,7 +513,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -576,7 +576,7 @@
         <v>0.12</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ref="C7:C51" si="0">A7/B7</f>
+        <f t="shared" ref="C7:C50" si="0">A7/B7</f>
         <v>687.5</v>
       </c>
       <c r="D7">
@@ -674,7 +674,7 @@
         <v>9.3800000000000008</v>
       </c>
       <c r="F11" s="2">
-        <f>D11/E11</f>
+        <f t="shared" ref="F11:F52" si="2">D11/E11</f>
         <v>735.60767590618332</v>
       </c>
     </row>
@@ -696,7 +696,7 @@
         <v>9.41</v>
       </c>
       <c r="F12" s="2">
-        <f>D12/E12</f>
+        <f t="shared" si="2"/>
         <v>724.76089266737517</v>
       </c>
     </row>
@@ -718,7 +718,7 @@
         <v>11.22</v>
       </c>
       <c r="F13" s="2">
-        <f>D13/E13</f>
+        <f t="shared" si="2"/>
         <v>742.42424242424238</v>
       </c>
     </row>
@@ -740,7 +740,7 @@
         <v>31.24</v>
       </c>
       <c r="F14" s="2">
-        <f>D14/E14</f>
+        <f t="shared" si="2"/>
         <v>729.83354673495523</v>
       </c>
     </row>
@@ -762,7 +762,7 @@
         <v>16.53</v>
       </c>
       <c r="F15" s="2">
-        <f>D15/E15</f>
+        <f t="shared" si="2"/>
         <v>738.05202661826979</v>
       </c>
     </row>
@@ -784,7 +784,7 @@
         <v>25.08</v>
       </c>
       <c r="F16" s="2">
-        <f>D16/E16</f>
+        <f t="shared" si="2"/>
         <v>725.67783094098888</v>
       </c>
     </row>
@@ -806,7 +806,7 @@
         <v>19.23</v>
       </c>
       <c r="F17" s="2">
-        <f>D17/E17</f>
+        <f t="shared" si="2"/>
         <v>748.8299531981279</v>
       </c>
     </row>
@@ -828,7 +828,7 @@
         <v>21.97</v>
       </c>
       <c r="F18" s="2">
-        <f>D18/E18</f>
+        <f t="shared" si="2"/>
         <v>732.81747837960859</v>
       </c>
     </row>
@@ -850,7 +850,7 @@
         <v>15.62</v>
       </c>
       <c r="F19" s="2">
-        <f>D19/E19</f>
+        <f t="shared" si="2"/>
         <v>755.44174135723438</v>
       </c>
     </row>
@@ -872,7 +872,7 @@
         <v>28.87</v>
       </c>
       <c r="F20" s="2">
-        <f>D20/E20</f>
+        <f t="shared" si="2"/>
         <v>734.32629026671282</v>
       </c>
     </row>
@@ -894,7 +894,7 @@
         <v>14.84</v>
       </c>
       <c r="F21" s="2">
-        <f>D21/E21</f>
+        <f t="shared" si="2"/>
         <v>754.71698113207549</v>
       </c>
     </row>
@@ -916,7 +916,7 @@
         <v>17.3</v>
       </c>
       <c r="F22" s="2">
-        <f>D22/E22</f>
+        <f t="shared" si="2"/>
         <v>734.10404624277453</v>
       </c>
     </row>
@@ -938,7 +938,7 @@
         <v>9.82</v>
       </c>
       <c r="F23" s="2">
-        <f>D23/E23</f>
+        <f t="shared" si="2"/>
         <v>748.47250509164962</v>
       </c>
     </row>
@@ -960,7 +960,7 @@
         <v>14.88</v>
       </c>
       <c r="F24" s="2">
-        <f>D24/E24</f>
+        <f t="shared" si="2"/>
         <v>745.96774193548379</v>
       </c>
     </row>
@@ -982,7 +982,7 @@
         <v>9.76</v>
       </c>
       <c r="F25" s="2">
-        <f>D25/E25</f>
+        <f t="shared" si="2"/>
         <v>760.24590163934431</v>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>16.82</v>
       </c>
       <c r="F26" s="2">
-        <f>D26/E26</f>
+        <f t="shared" si="2"/>
         <v>749.1082045184304</v>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
         <v>13.88</v>
       </c>
       <c r="F27" s="2">
-        <f>D27/E27</f>
+        <f t="shared" si="2"/>
         <v>749.27953890489914</v>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
         <v>24.3</v>
       </c>
       <c r="F28" s="2">
-        <f>D28/E28</f>
+        <f t="shared" si="2"/>
         <v>769.54732510288068</v>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
         <v>30.09</v>
       </c>
       <c r="F29" s="2">
-        <f>D29/E29</f>
+        <f t="shared" si="2"/>
         <v>757.7268195413759</v>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
         <v>37.78</v>
       </c>
       <c r="F30" s="2">
-        <f>D30/E30</f>
+        <f t="shared" si="2"/>
         <v>778.1895182636315</v>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
         <v>25.24</v>
       </c>
       <c r="F31" s="2">
-        <f>D31/E31</f>
+        <f t="shared" si="2"/>
         <v>752.77337559429486</v>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
         <v>42.7</v>
       </c>
       <c r="F32" s="2">
-        <f>D32/E32</f>
+        <f t="shared" si="2"/>
         <v>772.83372365339574</v>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
         <v>24.06</v>
       </c>
       <c r="F33" s="2">
-        <f>D33/E33</f>
+        <f t="shared" si="2"/>
         <v>752.28595178719866</v>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
         <v>22.79</v>
       </c>
       <c r="F34" s="2">
-        <f>D34/E34</f>
+        <f t="shared" si="2"/>
         <v>763.49275998244843</v>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
         <v>11.98</v>
       </c>
       <c r="F35" s="2">
-        <f>D35/E35</f>
+        <f t="shared" si="2"/>
         <v>758.76460767946571</v>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
         <v>6.34</v>
       </c>
       <c r="F36" s="2">
-        <f>D36/E36</f>
+        <f t="shared" si="2"/>
         <v>755.52050473186125</v>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
         <v>6.55</v>
       </c>
       <c r="F37" s="2">
-        <f>D37/E37</f>
+        <f t="shared" si="2"/>
         <v>770.99236641221376</v>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
         <v>5.79</v>
       </c>
       <c r="F38" s="2">
-        <f>D38/E38</f>
+        <f t="shared" si="2"/>
         <v>763.38514680483593</v>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
         <v>9.26</v>
       </c>
       <c r="F39" s="2">
-        <f>D39/E39</f>
+        <f t="shared" si="2"/>
         <v>768.89848812095033</v>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
         <v>6.46</v>
       </c>
       <c r="F40" s="2">
-        <f>D40/E40</f>
+        <f t="shared" si="2"/>
         <v>766.25386996904024</v>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
         <v>5.78</v>
       </c>
       <c r="F41" s="2">
-        <f>D41/E41</f>
+        <f t="shared" si="2"/>
         <v>757.78546712802768</v>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
         <v>3.1</v>
       </c>
       <c r="F42" s="2">
-        <f>D42/E42</f>
+        <f t="shared" si="2"/>
         <v>767.74193548387098</v>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
         <v>2.58</v>
       </c>
       <c r="F43" s="2">
-        <f>D43/E43</f>
+        <f t="shared" si="2"/>
         <v>748.06201550387595</v>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
         <v>1.31</v>
       </c>
       <c r="F44" s="2">
-        <f>D44/E44</f>
+        <f t="shared" si="2"/>
         <v>763.35877862595419</v>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
         <v>22.66</v>
       </c>
       <c r="F45" s="2">
-        <f>D45/E45</f>
+        <f t="shared" si="2"/>
         <v>1226.8314210061783</v>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
         <v>10.43</v>
       </c>
       <c r="F46" s="2">
-        <f>D46/E46</f>
+        <f t="shared" si="2"/>
         <v>1390.2205177372964</v>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
         <v>0.77</v>
       </c>
       <c r="F47" s="2">
-        <f>D47/E47</f>
+        <f t="shared" si="2"/>
         <v>1105.1948051948052</v>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
         <v>0.4</v>
       </c>
       <c r="F48" s="2">
-        <f>D48/E48</f>
+        <f t="shared" si="2"/>
         <v>1252.5</v>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
         <v>0.1</v>
       </c>
       <c r="F49" s="2">
-        <f>D49/E49</f>
+        <f t="shared" si="2"/>
         <v>1160</v>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
         <v>0.05</v>
       </c>
       <c r="F50" s="2">
-        <f>D50/E50</f>
+        <f t="shared" si="2"/>
         <v>1258</v>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
         <v>0.02</v>
       </c>
       <c r="F51" s="2">
-        <f>D51/E51</f>
+        <f t="shared" si="2"/>
         <v>1525</v>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
         <v>0.01</v>
       </c>
       <c r="F52" s="2">
-        <f>D52/E52</f>
+        <f t="shared" si="2"/>
         <v>646</v>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
